--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam15-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam15-Itga9.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.288329</v>
+        <v>23.699655</v>
       </c>
       <c r="H2">
-        <v>117.864987</v>
+        <v>71.09896499999999</v>
       </c>
       <c r="I2">
-        <v>0.632237668435316</v>
+        <v>0.4841969272415696</v>
       </c>
       <c r="J2">
-        <v>0.632237668435316</v>
+        <v>0.4841969272415697</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.398034</v>
+        <v>0.8366046666666667</v>
       </c>
       <c r="N2">
-        <v>4.194102</v>
+        <v>2.509814</v>
       </c>
       <c r="O2">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="P2">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="Q2">
-        <v>54.926419745186</v>
+        <v>19.82724197139</v>
       </c>
       <c r="R2">
-        <v>494.337777706674</v>
+        <v>178.44517774251</v>
       </c>
       <c r="S2">
-        <v>0.08792325205076708</v>
+        <v>0.03886009588321728</v>
       </c>
       <c r="T2">
-        <v>0.08792325205076708</v>
+        <v>0.03886009588321729</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.288329</v>
+        <v>23.699655</v>
       </c>
       <c r="H3">
-        <v>117.864987</v>
+        <v>71.09896499999999</v>
       </c>
       <c r="I3">
-        <v>0.632237668435316</v>
+        <v>0.4841969272415696</v>
       </c>
       <c r="J3">
-        <v>0.632237668435316</v>
+        <v>0.4841969272415697</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.939250333333334</v>
+        <v>7.939250333333333</v>
       </c>
       <c r="N3">
         <v>23.817751</v>
       </c>
       <c r="O3">
-        <v>0.7897418235434784</v>
+        <v>0.7616247559221037</v>
       </c>
       <c r="P3">
-        <v>0.7897418235434783</v>
+        <v>0.7616247559221038</v>
       </c>
       <c r="Q3">
-        <v>311.9198791093597</v>
+        <v>188.157493858635</v>
       </c>
       <c r="R3">
-        <v>2807.278911984237</v>
+        <v>1693.417444727715</v>
       </c>
       <c r="S3">
-        <v>0.4993045291829836</v>
+        <v>0.368776366528593</v>
       </c>
       <c r="T3">
-        <v>0.4993045291829835</v>
+        <v>0.3687763665285931</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.288329</v>
+        <v>23.699655</v>
       </c>
       <c r="H4">
-        <v>117.864987</v>
+        <v>71.09896499999999</v>
       </c>
       <c r="I4">
-        <v>0.632237668435316</v>
+        <v>0.4841969272415696</v>
       </c>
       <c r="J4">
-        <v>0.632237668435316</v>
+        <v>0.4841969272415697</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.715685</v>
+        <v>1.648242</v>
       </c>
       <c r="N4">
-        <v>2.147055</v>
+        <v>4.944726</v>
       </c>
       <c r="O4">
-        <v>0.0711914038797426</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="P4">
-        <v>0.07119140387974258</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="Q4">
-        <v>28.118067740365</v>
+        <v>39.06276675650999</v>
       </c>
       <c r="R4">
-        <v>253.062609663285</v>
+        <v>351.56490080859</v>
       </c>
       <c r="S4">
-        <v>0.04500988720156537</v>
+        <v>0.07656046482975928</v>
       </c>
       <c r="T4">
-        <v>0.04500988720156537</v>
+        <v>0.0765604648297593</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>19.344283</v>
       </c>
       <c r="H5">
-        <v>58.03284899999999</v>
+        <v>58.032849</v>
       </c>
       <c r="I5">
-        <v>0.3112930657211947</v>
+        <v>0.3952142927098025</v>
       </c>
       <c r="J5">
-        <v>0.3112930657211947</v>
+        <v>0.3952142927098025</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.398034</v>
+        <v>0.8366046666666667</v>
       </c>
       <c r="N5">
-        <v>4.194102</v>
+        <v>2.509814</v>
       </c>
       <c r="O5">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="P5">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="Q5">
-        <v>27.04396533962199</v>
+        <v>16.18351743112067</v>
       </c>
       <c r="R5">
-        <v>243.395688056598</v>
+        <v>145.651656880086</v>
       </c>
       <c r="S5">
-        <v>0.04329052197537769</v>
+        <v>0.03171863439244538</v>
       </c>
       <c r="T5">
-        <v>0.04329052197537769</v>
+        <v>0.03171863439244538</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>19.344283</v>
       </c>
       <c r="H6">
-        <v>58.03284899999999</v>
+        <v>58.032849</v>
       </c>
       <c r="I6">
-        <v>0.3112930657211947</v>
+        <v>0.3952142927098025</v>
       </c>
       <c r="J6">
-        <v>0.3112930657211947</v>
+        <v>0.3952142927098025</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.939250333333334</v>
+        <v>7.939250333333333</v>
       </c>
       <c r="N6">
         <v>23.817751</v>
       </c>
       <c r="O6">
-        <v>0.7897418235434784</v>
+        <v>0.7616247559221037</v>
       </c>
       <c r="P6">
-        <v>0.7897418235434783</v>
+        <v>0.7616247559221038</v>
       </c>
       <c r="Q6">
         <v>153.5791052558443</v>
@@ -818,10 +818,10 @@
         <v>1382.211947302599</v>
       </c>
       <c r="S6">
-        <v>0.2458411533790962</v>
+        <v>0.3010049892220301</v>
       </c>
       <c r="T6">
-        <v>0.2458411533790962</v>
+        <v>0.3010049892220302</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>19.344283</v>
       </c>
       <c r="H7">
-        <v>58.03284899999999</v>
+        <v>58.032849</v>
       </c>
       <c r="I7">
-        <v>0.3112930657211947</v>
+        <v>0.3952142927098025</v>
       </c>
       <c r="J7">
-        <v>0.3112930657211947</v>
+        <v>0.3952142927098025</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.715685</v>
+        <v>1.648242</v>
       </c>
       <c r="N7">
-        <v>2.147055</v>
+        <v>4.944726</v>
       </c>
       <c r="O7">
-        <v>0.0711914038797426</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="P7">
-        <v>0.07119140387974258</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="Q7">
-        <v>13.844413178855</v>
+        <v>31.884059700486</v>
       </c>
       <c r="R7">
-        <v>124.599718609695</v>
+        <v>286.956537304374</v>
       </c>
       <c r="S7">
-        <v>0.02216139036672083</v>
+        <v>0.06249066909532694</v>
       </c>
       <c r="T7">
-        <v>0.02216139036672082</v>
+        <v>0.06249066909532695</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.509096666666667</v>
+        <v>5.902376333333333</v>
       </c>
       <c r="H8">
-        <v>10.52729</v>
+        <v>17.707129</v>
       </c>
       <c r="I8">
-        <v>0.05646926584348937</v>
+        <v>0.1205887800486278</v>
       </c>
       <c r="J8">
-        <v>0.05646926584348937</v>
+        <v>0.1205887800486278</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.398034</v>
+        <v>0.8366046666666667</v>
       </c>
       <c r="N8">
-        <v>4.194102</v>
+        <v>2.509814</v>
       </c>
       <c r="O8">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="P8">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="Q8">
-        <v>4.905836449286666</v>
+        <v>4.937955584889555</v>
       </c>
       <c r="R8">
-        <v>44.15252804358001</v>
+        <v>44.441600264006</v>
       </c>
       <c r="S8">
-        <v>0.007852998550634208</v>
+        <v>0.009678069585914471</v>
       </c>
       <c r="T8">
-        <v>0.007852998550634208</v>
+        <v>0.009678069585914471</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.509096666666667</v>
+        <v>5.902376333333333</v>
       </c>
       <c r="H9">
-        <v>10.52729</v>
+        <v>17.707129</v>
       </c>
       <c r="I9">
-        <v>0.05646926584348937</v>
+        <v>0.1205887800486278</v>
       </c>
       <c r="J9">
-        <v>0.05646926584348937</v>
+        <v>0.1205887800486278</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.939250333333334</v>
+        <v>7.939250333333333</v>
       </c>
       <c r="N9">
         <v>23.817751</v>
       </c>
       <c r="O9">
-        <v>0.7897418235434784</v>
+        <v>0.7616247559221037</v>
       </c>
       <c r="P9">
-        <v>0.7897418235434783</v>
+        <v>0.7616247559221038</v>
       </c>
       <c r="Q9">
-        <v>27.85959688053222</v>
+        <v>46.86044327187544</v>
       </c>
       <c r="R9">
-        <v>250.73637192479</v>
+        <v>421.7439894468789</v>
       </c>
       <c r="S9">
-        <v>0.04459614098139875</v>
+        <v>0.09184340017148042</v>
       </c>
       <c r="T9">
-        <v>0.04459614098139875</v>
+        <v>0.09184340017148043</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.509096666666667</v>
+        <v>5.902376333333333</v>
       </c>
       <c r="H10">
-        <v>10.52729</v>
+        <v>17.707129</v>
       </c>
       <c r="I10">
-        <v>0.05646926584348937</v>
+        <v>0.1205887800486278</v>
       </c>
       <c r="J10">
-        <v>0.05646926584348937</v>
+        <v>0.1205887800486278</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.715685</v>
+        <v>1.648242</v>
       </c>
       <c r="N10">
-        <v>2.147055</v>
+        <v>4.944726</v>
       </c>
       <c r="O10">
-        <v>0.0711914038797426</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="P10">
-        <v>0.07119140387974258</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="Q10">
-        <v>2.511407847883333</v>
+        <v>9.728544572405999</v>
       </c>
       <c r="R10">
-        <v>22.60267063095</v>
+        <v>87.55690115165399</v>
       </c>
       <c r="S10">
-        <v>0.004020126311456405</v>
+        <v>0.01906731029123294</v>
       </c>
       <c r="T10">
-        <v>0.004020126311456405</v>
+        <v>0.01906731029123295</v>
       </c>
     </row>
   </sheetData>
